--- a/tests/input/dummy_data2_empty_columns.xlsx
+++ b/tests/input/dummy_data2_empty_columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFFF92-56E9-440F-A470-01A356A8DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7407C-8D71-471F-AADD-6E4D02DAD02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
@@ -38,21 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
-    <t>Leuko</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>MCV</t>
   </si>
   <si>
-    <t>Trom</t>
-  </si>
-  <si>
-    <t>BSE</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -413,15 +401,9 @@
     <t>RF</t>
   </si>
   <si>
-    <t>aCCP</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>PATNR</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -438,16 +420,41 @@
   </si>
   <si>
     <t>DUMMY24</t>
+  </si>
+  <si>
+    <t>Patient number</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Thrombocytes</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>ACPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,8 +480,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -811,396 +819,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB15-C56C-476F-841C-D1AC343D3A50}">
   <dimension ref="A1:DX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CR15" sqref="CR15"/>
+    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
+      <selection activeCell="DU1" sqref="DU1:DV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
+      <c r="DX1" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -1559,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -1891,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -2220,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="DX4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -2606,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/tests/input/dummy_data2_empty_columns.xlsx
+++ b/tests/input/dummy_data2_empty_columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7407C-8D71-471F-AADD-6E4D02DAD02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BFDEA-17A4-46B6-B6E9-2B9DD97A073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5EC57D-C81F-4741-81F5-BBD2F87E43C6}"/>
   </bookViews>
@@ -44,360 +44,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Zwelling_Elleboog L</t>
-  </si>
-  <si>
-    <t>Zwelling_IP links</t>
-  </si>
-  <si>
-    <t>Zwelling_IP rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_elleboog R</t>
-  </si>
-  <si>
-    <t>Zwelling_knie links</t>
-  </si>
-  <si>
-    <t>Zwelling_knie rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pols L</t>
-  </si>
-  <si>
-    <t>Zwelling_pols R</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder L</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder R</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair R</t>
-  </si>
-  <si>
-    <t>Pijn_Elleboog L</t>
-  </si>
-  <si>
-    <t>Pijn_IP links</t>
-  </si>
-  <si>
-    <t>Pijn_IP rechts</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_elleboog R</t>
-  </si>
-  <si>
-    <t>Pijn_heup links</t>
-  </si>
-  <si>
-    <t>Pijn_heup rechts</t>
-  </si>
-  <si>
-    <t>Pijn_knie links</t>
-  </si>
-  <si>
-    <t>Pijn_knie rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pols L</t>
-  </si>
-  <si>
-    <t>Pijn_pols R</t>
-  </si>
-  <si>
-    <t>Pijn_schouder L</t>
-  </si>
-  <si>
-    <t>Pijn_schouder R</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair R</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -438,6 +84,360 @@
   </si>
   <si>
     <t>ACPA</t>
+  </si>
+  <si>
+    <t>s_el_left</t>
+  </si>
+  <si>
+    <t>s_pip1_left</t>
+  </si>
+  <si>
+    <t>s_pip1_right</t>
+  </si>
+  <si>
+    <t>s_ac_left</t>
+  </si>
+  <si>
+    <t>s_ac_right</t>
+  </si>
+  <si>
+    <t>s_ank_left</t>
+  </si>
+  <si>
+    <t>s_ank_right</t>
+  </si>
+  <si>
+    <t>s_dip2_left</t>
+  </si>
+  <si>
+    <t>s_dip2_right</t>
+  </si>
+  <si>
+    <t>s_dip3_left</t>
+  </si>
+  <si>
+    <t>s_dip3_right</t>
+  </si>
+  <si>
+    <t>s_dip4_left</t>
+  </si>
+  <si>
+    <t>s_dip4_right</t>
+  </si>
+  <si>
+    <t>s_dip5_left</t>
+  </si>
+  <si>
+    <t>s_dip5_right</t>
+  </si>
+  <si>
+    <t>s_el_right</t>
+  </si>
+  <si>
+    <t>s_kn_left</t>
+  </si>
+  <si>
+    <t>s_kn_right</t>
+  </si>
+  <si>
+    <t>s_mcp1_left</t>
+  </si>
+  <si>
+    <t>s_mcp1_right</t>
+  </si>
+  <si>
+    <t>s_mcp2_left</t>
+  </si>
+  <si>
+    <t>s_mcp2_right</t>
+  </si>
+  <si>
+    <t>s_mcp3_left</t>
+  </si>
+  <si>
+    <t>s_mcp3_right</t>
+  </si>
+  <si>
+    <t>s_mcp4_left</t>
+  </si>
+  <si>
+    <t>s_mcp4_right</t>
+  </si>
+  <si>
+    <t>s_mcp5_left</t>
+  </si>
+  <si>
+    <t>s_mcp5_right</t>
+  </si>
+  <si>
+    <t>s_mtp1_left</t>
+  </si>
+  <si>
+    <t>s_mtp1_right</t>
+  </si>
+  <si>
+    <t>s_mtp2_left</t>
+  </si>
+  <si>
+    <t>s_mtp2_right</t>
+  </si>
+  <si>
+    <t>s_mtp3_left</t>
+  </si>
+  <si>
+    <t>s_mtp3_right</t>
+  </si>
+  <si>
+    <t>s_mtp4_left</t>
+  </si>
+  <si>
+    <t>s_mtp4_right</t>
+  </si>
+  <si>
+    <t>s_mtp5_left</t>
+  </si>
+  <si>
+    <t>s_mtp5_right</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>s_pip2_left</t>
+  </si>
+  <si>
+    <t>s_pip2_right</t>
+  </si>
+  <si>
+    <t>s_pip3_left</t>
+  </si>
+  <si>
+    <t>s_pip3_right</t>
+  </si>
+  <si>
+    <t>s_pip4_left</t>
+  </si>
+  <si>
+    <t>s_pip4_right</t>
+  </si>
+  <si>
+    <t>s_pip5_left</t>
+  </si>
+  <si>
+    <t>s_pip5_right</t>
+  </si>
+  <si>
+    <t>s_wr_left</t>
+  </si>
+  <si>
+    <t>s_wr_right</t>
+  </si>
+  <si>
+    <t>s_sh_left</t>
+  </si>
+  <si>
+    <t>s_sh_right</t>
+  </si>
+  <si>
+    <t>s_sc_left</t>
+  </si>
+  <si>
+    <t>s_sc_right</t>
+  </si>
+  <si>
+    <t>s_tar_left</t>
+  </si>
+  <si>
+    <t>s_tar_right</t>
+  </si>
+  <si>
+    <t>s_tm_left</t>
+  </si>
+  <si>
+    <t>s_tm_right</t>
+  </si>
+  <si>
+    <t>t_el_left</t>
+  </si>
+  <si>
+    <t>t_pip1_left</t>
+  </si>
+  <si>
+    <t>t_pip1_right</t>
+  </si>
+  <si>
+    <t>t_ac_left</t>
+  </si>
+  <si>
+    <t>t_ac_right</t>
+  </si>
+  <si>
+    <t>t_ank_left</t>
+  </si>
+  <si>
+    <t>t_ank_right</t>
+  </si>
+  <si>
+    <t>t_dip2_left</t>
+  </si>
+  <si>
+    <t>t_dip2_right</t>
+  </si>
+  <si>
+    <t>t_dip3_left</t>
+  </si>
+  <si>
+    <t>t_dip3_right</t>
+  </si>
+  <si>
+    <t>t_dip4_left</t>
+  </si>
+  <si>
+    <t>t_dip4_right</t>
+  </si>
+  <si>
+    <t>t_dip5_left</t>
+  </si>
+  <si>
+    <t>t_dip5_right</t>
+  </si>
+  <si>
+    <t>t_el_right</t>
+  </si>
+  <si>
+    <t>t_hip_left</t>
+  </si>
+  <si>
+    <t>t_hip_right</t>
+  </si>
+  <si>
+    <t>t_kn_left</t>
+  </si>
+  <si>
+    <t>t_kn_right</t>
+  </si>
+  <si>
+    <t>t_mcp1_left</t>
+  </si>
+  <si>
+    <t>t_mcp1_right</t>
+  </si>
+  <si>
+    <t>t_mcp2_left</t>
+  </si>
+  <si>
+    <t>t_mcp2_right</t>
+  </si>
+  <si>
+    <t>t_mcp3_left</t>
+  </si>
+  <si>
+    <t>t_mcp3_right</t>
+  </si>
+  <si>
+    <t>t_mcp4_left</t>
+  </si>
+  <si>
+    <t>t_mcp4_right</t>
+  </si>
+  <si>
+    <t>t_mcp5_left</t>
+  </si>
+  <si>
+    <t>t_mcp5_right</t>
+  </si>
+  <si>
+    <t>t_mtp1_left</t>
+  </si>
+  <si>
+    <t>t_mtp1_right</t>
+  </si>
+  <si>
+    <t>t_mtp2_left</t>
+  </si>
+  <si>
+    <t>t_mtp2_right</t>
+  </si>
+  <si>
+    <t>t_mtp3_left</t>
+  </si>
+  <si>
+    <t>t_mtp3_right</t>
+  </si>
+  <si>
+    <t>t_mtp4_left</t>
+  </si>
+  <si>
+    <t>t_mtp4_right</t>
+  </si>
+  <si>
+    <t>t_mtp5_left</t>
+  </si>
+  <si>
+    <t>t_mtp5_right</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>t_pip2_left</t>
+  </si>
+  <si>
+    <t>t_pip2_right</t>
+  </si>
+  <si>
+    <t>t_pip3_left</t>
+  </si>
+  <si>
+    <t>t_pip3_right</t>
+  </si>
+  <si>
+    <t>t_pip4_left</t>
+  </si>
+  <si>
+    <t>t_pip4_right</t>
+  </si>
+  <si>
+    <t>t_pip5_left</t>
+  </si>
+  <si>
+    <t>t_pip5_right</t>
+  </si>
+  <si>
+    <t>t_wr_left</t>
+  </si>
+  <si>
+    <t>t_wr_right</t>
+  </si>
+  <si>
+    <t>t_sh_left</t>
+  </si>
+  <si>
+    <t>t_sh_right</t>
+  </si>
+  <si>
+    <t>t_sc_left</t>
+  </si>
+  <si>
+    <t>t_sc_right</t>
+  </si>
+  <si>
+    <t>t_tar_left</t>
+  </si>
+  <si>
+    <t>t_tar_right</t>
+  </si>
+  <si>
+    <t>t_tm_left</t>
+  </si>
+  <si>
+    <t>t_tm_right</t>
   </si>
 </sst>
 </file>
@@ -819,396 +819,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCBB15-C56C-476F-841C-D1AC343D3A50}">
   <dimension ref="A1:DX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
-      <selection activeCell="DU1" sqref="DU1:DV1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:DX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="DT1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="DV1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DW1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX2" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -1899,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX3" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="DX4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX5" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
